--- a/HT_settings/HT_Default_Settings.xlsx
+++ b/HT_settings/HT_Default_Settings.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/HT_settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE85248-41C2-E74D-AD72-AEBD693FB21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6520F3-D555-D24C-ACB7-D7E55D822817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35860" yWindow="500" windowWidth="28300" windowHeight="17440" xr2:uid="{C91D466F-BC61-7C48-A5EC-B0248C943BBE}"/>
+    <workbookView xWindow="35860" yWindow="500" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{C91D466F-BC61-7C48-A5EC-B0248C943BBE}"/>
   </bookViews>
   <sheets>
-    <sheet name="classification" sheetId="1" r:id="rId1"/>
+    <sheet name="image_classification" sheetId="1" r:id="rId1"/>
+    <sheet name="text_classification" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
   <si>
     <t>Validation Strategy</t>
   </si>
@@ -348,6 +349,96 @@
   <si>
     <t>None</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Experiment Name</t>
+  </si>
+  <si>
+    <t>text_classfication_amazon</t>
+  </si>
+  <si>
+    <t>Train Dataframe</t>
+  </si>
+  <si>
+    <t>data/user/amazon_reviews_text_classification/amazon_reviews_text_classification.csv</t>
+  </si>
+  <si>
+    <t>Validation Dataframe</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Group Fold Column</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Selected Folds</t>
+  </si>
+  <si>
+    <t>Test Dataframe</t>
+  </si>
+  <si>
+    <t>Unlabeled Dataframe</t>
+  </si>
+  <si>
+    <t>Label Columns</t>
+  </si>
+  <si>
+    <t>('label',)</t>
+  </si>
+  <si>
+    <t>Text Column</t>
+  </si>
+  <si>
+    <t>('text',)</t>
+  </si>
+  <si>
+    <t>Separator</t>
+  </si>
+  <si>
+    <t>Lowercase</t>
+  </si>
+  <si>
+    <t>Max Length</t>
+  </si>
+  <si>
+    <t>Padding Quantile</t>
+  </si>
+  <si>
+    <t>Token Mask Probability</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-v3-small</t>
+  </si>
+  <si>
+    <t>Gradient Checkpointing</t>
+  </si>
+  <si>
+    <t>Intermediate Dropout</t>
+  </si>
+  <si>
+    <t>[CLS] token</t>
+  </si>
+  <si>
+    <t>ROC_AUC</t>
+  </si>
+  <si>
+    <t>Export To Onnx</t>
+  </si>
+  <si>
+    <t>Onnx Target Device</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>Neptune Project</t>
+  </si>
+  <si>
+    <t>Number Of Texts</t>
   </si>
 </sst>
 </file>
@@ -411,11 +502,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9C0466-EDBE-7742-A206-459A409951D7}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
@@ -1218,4 +1312,603 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FDB68E-A482-7F4F-933B-78842299B83D}">
+  <dimension ref="B3:B118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="61.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>